--- a/November'21/22.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/22.11.2021/Daily Sales Info.....xlsx
@@ -35402,8 +35402,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
